--- a/Base/Teams/Titans/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Titans/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="C2">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="C2">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Titans/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Titans/2021 Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="C3">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>12</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -529,13 +529,13 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="C3">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E3">
         <v>22</v>
@@ -544,7 +544,7 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Titans/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Titans/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="C2">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="C2">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>4</v>

--- a/Base/Teams/Titans/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Titans/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="C2">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="C2">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>4</v>

--- a/Base/Teams/Titans/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Titans/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="C3">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="C3">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>4</v>

--- a/Base/Teams/Titans/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Titans/2021 Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="C2">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="D2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="C2">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>4</v>
